--- a/Stats/NUMBEO_Cost_of_Living_Index.xlsx
+++ b/Stats/NUMBEO_Cost_of_Living_Index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="377">
   <si>
     <t>Rank</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Local Purchasing Power Index</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Zurich, Switzerland</t>
   </si>
   <si>
@@ -1136,6 +1139,12 @@
   </si>
   <si>
     <t>Louisville, KY, United States</t>
+  </si>
+  <si>
+    <t>Spokane, WA, United States</t>
+  </si>
+  <si>
+    <t>Indianapolis, IN, United States</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>107.4</v>
@@ -1556,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>104.2</v>
@@ -1582,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>102.9</v>
@@ -1608,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>102.1</v>
@@ -1634,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1660,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>97.7</v>
@@ -1686,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>91.8</v>
@@ -1712,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>91.8</v>
@@ -1738,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>91.2</v>
@@ -1764,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>84.59999999999999</v>
@@ -1790,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>84.09999999999999</v>
@@ -1816,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>83.3</v>
@@ -1842,7 +1851,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>82.2</v>
@@ -1868,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>81.5</v>
@@ -1894,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>81.40000000000001</v>
@@ -1920,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>80.90000000000001</v>
@@ -1946,7 +1955,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>79.40000000000001</v>
@@ -1972,7 +1981,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>78.7</v>
@@ -1998,7 +2007,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>77.5</v>
@@ -2024,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>77.2</v>
@@ -2050,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>76.3</v>
@@ -2076,7 +2085,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>76.2</v>
@@ -2102,7 +2111,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>76.09999999999999</v>
@@ -2128,7 +2137,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>74.8</v>
@@ -2154,7 +2163,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>74.3</v>
@@ -2180,7 +2189,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>74.09999999999999</v>
@@ -2206,7 +2215,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>73.59999999999999</v>
@@ -2232,7 +2241,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>73.09999999999999</v>
@@ -2258,7 +2267,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>72.40000000000001</v>
@@ -2284,7 +2293,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>72</v>
@@ -2310,7 +2319,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>72</v>
@@ -2336,7 +2345,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>71.59999999999999</v>
@@ -2362,7 +2371,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>71.5</v>
@@ -2388,7 +2397,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>71</v>
@@ -2414,7 +2423,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>70.90000000000001</v>
@@ -2440,7 +2449,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>70.5</v>
@@ -2466,7 +2475,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>70.40000000000001</v>
@@ -2492,7 +2501,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>69.7</v>
@@ -2518,7 +2527,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>69.59999999999999</v>
@@ -2544,7 +2553,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>69.40000000000001</v>
@@ -2570,7 +2579,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>69.3</v>
@@ -2596,7 +2605,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>69</v>
@@ -2622,7 +2631,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>68.90000000000001</v>
@@ -2648,7 +2657,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>68.7</v>
@@ -2674,7 +2683,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>68.5</v>
@@ -2700,7 +2709,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>68.40000000000001</v>
@@ -2726,7 +2735,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>68.2</v>
@@ -2752,7 +2761,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>68.09999999999999</v>
@@ -2778,7 +2787,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>68.09999999999999</v>
@@ -2804,7 +2813,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>68</v>
@@ -2830,7 +2839,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>67.7</v>
@@ -2856,7 +2865,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>67.5</v>
@@ -2882,7 +2891,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>67.3</v>
@@ -2908,7 +2917,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>67.3</v>
@@ -2934,7 +2943,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>67.3</v>
@@ -2960,7 +2969,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>67</v>
@@ -2986,7 +2995,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>66.8</v>
@@ -3012,7 +3021,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>66.40000000000001</v>
@@ -3038,7 +3047,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60">
         <v>66.2</v>
@@ -3064,7 +3073,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>66.09999999999999</v>
@@ -3090,7 +3099,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>65.90000000000001</v>
@@ -3116,7 +3125,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>65.8</v>
@@ -3142,7 +3151,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>65.59999999999999</v>
@@ -3168,7 +3177,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65">
         <v>65.59999999999999</v>
@@ -3194,7 +3203,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <v>65.5</v>
@@ -3220,7 +3229,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <v>65.40000000000001</v>
@@ -3246,7 +3255,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <v>65.3</v>
@@ -3272,7 +3281,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>65.3</v>
@@ -3298,7 +3307,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C70">
         <v>65.09999999999999</v>
@@ -3324,7 +3333,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>64.90000000000001</v>
@@ -3350,7 +3359,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72">
         <v>64.90000000000001</v>
@@ -3376,7 +3385,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73">
         <v>64.7</v>
@@ -3402,7 +3411,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74">
         <v>64.59999999999999</v>
@@ -3428,7 +3437,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75">
         <v>64.5</v>
@@ -3454,7 +3463,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C76">
         <v>64.5</v>
@@ -3480,7 +3489,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77">
         <v>64.40000000000001</v>
@@ -3506,7 +3515,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C78">
         <v>64.3</v>
@@ -3532,7 +3541,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79">
         <v>64.3</v>
@@ -3558,7 +3567,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80">
         <v>64.3</v>
@@ -3584,7 +3593,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81">
         <v>64.3</v>
@@ -3610,7 +3619,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82">
         <v>64.2</v>
@@ -3636,7 +3645,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83">
         <v>64.09999999999999</v>
@@ -3662,7 +3671,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C84">
         <v>64.09999999999999</v>
@@ -3688,7 +3697,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <v>63.9</v>
@@ -3714,7 +3723,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C86">
         <v>63.9</v>
@@ -3740,7 +3749,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>63.8</v>
@@ -3766,7 +3775,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C88">
         <v>63.8</v>
@@ -3792,7 +3801,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C89">
         <v>63.7</v>
@@ -3818,7 +3827,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C90">
         <v>63.5</v>
@@ -3844,7 +3853,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C91">
         <v>63.5</v>
@@ -3870,7 +3879,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C92">
         <v>63.5</v>
@@ -3896,7 +3905,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C93">
         <v>63.5</v>
@@ -3922,7 +3931,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C94">
         <v>63.3</v>
@@ -3948,7 +3957,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C95">
         <v>63.3</v>
@@ -3974,7 +3983,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96">
         <v>63.1</v>
@@ -4000,7 +4009,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97">
         <v>63.1</v>
@@ -4026,7 +4035,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C98">
         <v>62.9</v>
@@ -4052,7 +4061,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C99">
         <v>62.9</v>
@@ -4078,7 +4087,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C100">
         <v>62.7</v>
@@ -4104,7 +4113,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C101">
         <v>62.6</v>
@@ -4130,7 +4139,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C102">
         <v>62.5</v>
@@ -4156,7 +4165,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C103">
         <v>62.5</v>
@@ -4182,7 +4191,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C104">
         <v>62.4</v>
@@ -4208,7 +4217,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105">
         <v>62.3</v>
@@ -4234,7 +4243,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C106">
         <v>62.3</v>
@@ -4260,7 +4269,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <v>62.2</v>
@@ -4286,7 +4295,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C108">
         <v>62</v>
@@ -4312,7 +4321,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C109">
         <v>61.7</v>
@@ -4338,7 +4347,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C110">
         <v>61.7</v>
@@ -4364,7 +4373,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C111">
         <v>61.7</v>
@@ -4390,7 +4399,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C112">
         <v>61.7</v>
@@ -4416,7 +4425,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C113">
         <v>61.5</v>
@@ -4442,7 +4451,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C114">
         <v>61.5</v>
@@ -4468,7 +4477,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C115">
         <v>61.4</v>
@@ -4494,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C116">
         <v>61.3</v>
@@ -4520,7 +4529,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C117">
         <v>61.3</v>
@@ -4546,7 +4555,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C118">
         <v>61.3</v>
@@ -4572,7 +4581,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C119">
         <v>61</v>
@@ -4598,7 +4607,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C120">
         <v>60.9</v>
@@ -4624,7 +4633,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C121">
         <v>60.6</v>
@@ -4650,7 +4659,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C122">
         <v>60.5</v>
@@ -4676,7 +4685,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C123">
         <v>60.2</v>
@@ -4702,7 +4711,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C124">
         <v>60.1</v>
@@ -4728,7 +4737,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C125">
         <v>59.9</v>
@@ -4754,7 +4763,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C126">
         <v>59.9</v>
@@ -4780,7 +4789,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C127">
         <v>59.9</v>
@@ -4806,7 +4815,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C128">
         <v>59.8</v>
@@ -4832,7 +4841,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C129">
         <v>59.4</v>
@@ -4858,7 +4867,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C130">
         <v>59.3</v>
@@ -4884,7 +4893,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C131">
         <v>59.2</v>
@@ -4910,7 +4919,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C132">
         <v>59.2</v>
@@ -4936,7 +4945,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C133">
         <v>59.1</v>
@@ -4962,7 +4971,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C134">
         <v>59</v>
@@ -4988,7 +4997,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>58.6</v>
@@ -5014,7 +5023,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C136">
         <v>58.5</v>
@@ -5040,7 +5049,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C137">
         <v>58.2</v>
@@ -5066,7 +5075,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C138">
         <v>58</v>
@@ -5092,7 +5101,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C139">
         <v>57.7</v>
@@ -5118,7 +5127,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C140">
         <v>57.3</v>
@@ -5144,7 +5153,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C141">
         <v>56.8</v>
@@ -5170,7 +5179,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C142">
         <v>56.7</v>
@@ -5196,7 +5205,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C143">
         <v>56.2</v>
@@ -5222,7 +5231,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C144">
         <v>55.9</v>
@@ -5248,7 +5257,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C145">
         <v>55.6</v>
@@ -5274,7 +5283,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C146">
         <v>55.5</v>
@@ -5300,7 +5309,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C147">
         <v>55.3</v>
@@ -5326,7 +5335,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C148">
         <v>55.3</v>
@@ -5352,7 +5361,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C149">
         <v>55.1</v>
@@ -5378,7 +5387,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C150">
         <v>54.5</v>
@@ -5404,7 +5413,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C151">
         <v>54.5</v>
@@ -5430,7 +5439,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C152">
         <v>54.4</v>
@@ -5456,7 +5465,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C153">
         <v>54.3</v>
@@ -5482,7 +5491,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C154">
         <v>54.2</v>
@@ -5508,7 +5517,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C155">
         <v>53.8</v>
@@ -5534,7 +5543,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C156">
         <v>52.5</v>
@@ -5560,7 +5569,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C157">
         <v>52.3</v>
@@ -5586,7 +5595,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C158">
         <v>52</v>
@@ -5612,7 +5621,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C159">
         <v>51.6</v>
@@ -5638,7 +5647,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C160">
         <v>51.3</v>
@@ -5664,7 +5673,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C161">
         <v>50.9</v>
@@ -5690,7 +5699,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C162">
         <v>49.3</v>
@@ -5716,7 +5725,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C163">
         <v>49.2</v>
@@ -5742,7 +5751,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C164">
         <v>49.2</v>
@@ -5768,7 +5777,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C165">
         <v>49.1</v>
@@ -5794,7 +5803,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C166">
         <v>49.1</v>
@@ -5820,7 +5829,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C167">
         <v>49.1</v>
@@ -5846,7 +5855,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C168">
         <v>48.7</v>
@@ -5872,7 +5881,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C169">
         <v>48.5</v>
@@ -5898,7 +5907,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C170">
         <v>48.2</v>
@@ -5924,7 +5933,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C171">
         <v>47.9</v>
@@ -5950,7 +5959,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C172">
         <v>47.7</v>
@@ -5976,7 +5985,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C173">
         <v>47.2</v>
@@ -6002,7 +6011,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C174">
         <v>46.7</v>
@@ -6028,7 +6037,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C175">
         <v>45.3</v>
@@ -6054,7 +6063,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C176">
         <v>45.1</v>
@@ -6080,7 +6089,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C177">
         <v>45.1</v>
@@ -6106,7 +6115,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C178">
         <v>45</v>
@@ -6132,7 +6141,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C179">
         <v>45</v>
@@ -6158,7 +6167,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C180">
         <v>44.6</v>
@@ -6184,7 +6193,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C181">
         <v>44.6</v>
@@ -6210,7 +6219,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C182">
         <v>44.5</v>
@@ -6236,7 +6245,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C183">
         <v>44.3</v>
@@ -6262,7 +6271,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C184">
         <v>44.1</v>
@@ -6288,7 +6297,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C185">
         <v>44</v>
@@ -6314,7 +6323,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C186">
         <v>43.8</v>
@@ -6340,7 +6349,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C187">
         <v>43.6</v>
@@ -6366,7 +6375,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C188">
         <v>43.6</v>
@@ -6392,7 +6401,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C189">
         <v>43.4</v>
@@ -6418,7 +6427,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C190">
         <v>43.2</v>
@@ -6444,7 +6453,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C191">
         <v>42.7</v>
@@ -6470,7 +6479,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C192">
         <v>42.7</v>
@@ -6496,7 +6505,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C193">
         <v>42.6</v>
@@ -6522,7 +6531,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C194">
         <v>42.4</v>
@@ -6548,7 +6557,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C195">
         <v>42.4</v>
@@ -6574,7 +6583,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C196">
         <v>42.2</v>
@@ -6600,7 +6609,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C197">
         <v>42.2</v>
@@ -6626,7 +6635,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C198">
         <v>42.2</v>
@@ -6652,7 +6661,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C199">
         <v>42.2</v>
@@ -6678,7 +6687,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C200">
         <v>42.1</v>
@@ -6704,7 +6713,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C201">
         <v>41.6</v>
@@ -6730,7 +6739,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C202">
         <v>41.4</v>
@@ -6756,7 +6765,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C203">
         <v>41.3</v>
@@ -6782,7 +6791,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C204">
         <v>41.3</v>
@@ -6808,7 +6817,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C205">
         <v>41.2</v>
@@ -6834,7 +6843,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C206">
         <v>41.2</v>
@@ -6860,7 +6869,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C207">
         <v>41.1</v>
@@ -6886,7 +6895,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C208">
         <v>40.9</v>
@@ -6912,7 +6921,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C209">
         <v>40.6</v>
@@ -6938,7 +6947,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C210">
         <v>40.3</v>
@@ -6964,7 +6973,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C211">
         <v>40.3</v>
@@ -6990,7 +6999,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C212">
         <v>40</v>
@@ -7016,7 +7025,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C213">
         <v>40</v>
@@ -7042,7 +7051,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C214">
         <v>39.9</v>
@@ -7068,7 +7077,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C215">
         <v>39.6</v>
@@ -7094,7 +7103,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C216">
         <v>39.3</v>
@@ -7120,7 +7129,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C217">
         <v>39.3</v>
@@ -7146,7 +7155,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C218">
         <v>38.8</v>
@@ -7172,7 +7181,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C219">
         <v>38.8</v>
@@ -7198,7 +7207,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C220">
         <v>38.3</v>
@@ -7224,7 +7233,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C221">
         <v>38.3</v>
@@ -7250,7 +7259,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C222">
         <v>38.3</v>
@@ -7276,7 +7285,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C223">
         <v>37.9</v>
@@ -7302,7 +7311,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C224">
         <v>37.5</v>
@@ -7328,7 +7337,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C225">
         <v>37.4</v>
@@ -7354,7 +7363,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C226">
         <v>37</v>
@@ -7380,7 +7389,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C227">
         <v>37</v>
@@ -7406,7 +7415,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C228">
         <v>36.8</v>
@@ -7432,7 +7441,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C229">
         <v>36.6</v>
@@ -7458,7 +7467,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C230">
         <v>36.4</v>
@@ -7484,7 +7493,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C231">
         <v>36.4</v>
@@ -7510,7 +7519,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C232">
         <v>36</v>
@@ -7536,7 +7545,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C233">
         <v>35.9</v>
@@ -7562,7 +7571,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C234">
         <v>35.9</v>
@@ -7588,7 +7597,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C235">
         <v>35.7</v>
@@ -7614,7 +7623,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C236">
         <v>35.7</v>
@@ -7640,7 +7649,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C237">
         <v>35.5</v>
@@ -7666,7 +7675,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C238">
         <v>35.3</v>
@@ -7692,7 +7701,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C239">
         <v>35.2</v>
@@ -7718,7 +7727,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C240">
         <v>35.2</v>
@@ -7744,7 +7753,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C241">
         <v>35.1</v>
@@ -7770,7 +7779,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C242">
         <v>34.9</v>
@@ -7796,7 +7805,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C243">
         <v>34.9</v>
@@ -7822,7 +7831,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C244">
         <v>34.7</v>
@@ -7848,7 +7857,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C245">
         <v>34.3</v>
@@ -7874,7 +7883,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C246">
         <v>34.2</v>
@@ -7900,7 +7909,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C247">
         <v>34</v>
@@ -7926,7 +7935,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C248">
         <v>33.9</v>
@@ -7952,7 +7961,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C249">
         <v>33.8</v>
@@ -7978,7 +7987,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C250">
         <v>33.7</v>
@@ -8004,7 +8013,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C251">
         <v>33.7</v>
@@ -8030,7 +8039,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C252">
         <v>33.6</v>
@@ -8056,7 +8065,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C253">
         <v>33.4</v>
@@ -8082,7 +8091,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C254">
         <v>33.2</v>
@@ -8108,7 +8117,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C255">
         <v>33.2</v>
@@ -8134,7 +8143,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C256">
         <v>33.2</v>
@@ -8160,7 +8169,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C257">
         <v>33.1</v>
@@ -8186,7 +8195,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C258">
         <v>33</v>
@@ -8212,7 +8221,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C259">
         <v>32.9</v>
@@ -8238,7 +8247,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C260">
         <v>32.7</v>
@@ -8264,7 +8273,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C261">
         <v>32.6</v>
@@ -8290,7 +8299,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C262">
         <v>32.5</v>
@@ -8316,7 +8325,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C263">
         <v>32.4</v>
@@ -8342,7 +8351,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C264">
         <v>32.2</v>
@@ -8368,7 +8377,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C265">
         <v>32</v>
@@ -8394,7 +8403,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C266">
         <v>31.7</v>
@@ -8420,7 +8429,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C267">
         <v>31.6</v>
@@ -8446,7 +8455,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C268">
         <v>31.5</v>
@@ -8472,7 +8481,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C269">
         <v>31.3</v>
@@ -8498,7 +8507,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C270">
         <v>31</v>
@@ -8524,7 +8533,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C271">
         <v>30.9</v>
@@ -8550,7 +8559,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C272">
         <v>30.6</v>
@@ -8576,7 +8585,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C273">
         <v>30.6</v>
@@ -8602,7 +8611,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C274">
         <v>30.5</v>
@@ -8628,7 +8637,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C275">
         <v>30.5</v>
@@ -8654,7 +8663,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C276">
         <v>30.4</v>
@@ -8680,7 +8689,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C277">
         <v>30.3</v>
@@ -8706,7 +8715,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C278">
         <v>30.3</v>
@@ -8732,7 +8741,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C279">
         <v>30.3</v>
@@ -8758,7 +8767,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C280">
         <v>30.3</v>
@@ -8784,7 +8793,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C281">
         <v>30.2</v>
@@ -8810,7 +8819,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C282">
         <v>30.1</v>
@@ -8836,7 +8845,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C283">
         <v>30.1</v>
@@ -8862,7 +8871,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C284">
         <v>30</v>
@@ -8888,7 +8897,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C285">
         <v>30</v>
@@ -8914,7 +8923,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C286">
         <v>29.9</v>
@@ -8940,7 +8949,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C287">
         <v>29.9</v>
@@ -8966,7 +8975,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C288">
         <v>29.8</v>
@@ -8992,7 +9001,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C289">
         <v>29.8</v>
@@ -9018,7 +9027,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C290">
         <v>29.8</v>
@@ -9044,7 +9053,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C291">
         <v>29.6</v>
@@ -9070,7 +9079,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C292">
         <v>29.1</v>
@@ -9096,7 +9105,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C293">
         <v>29</v>
@@ -9122,7 +9131,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C294">
         <v>28.8</v>
@@ -9148,7 +9157,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C295">
         <v>28.8</v>
@@ -9174,7 +9183,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C296">
         <v>28.8</v>
@@ -9200,7 +9209,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C297">
         <v>28.7</v>
@@ -9226,7 +9235,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C298">
         <v>28.6</v>
@@ -9252,7 +9261,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C299">
         <v>28.5</v>
@@ -9278,7 +9287,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C300">
         <v>28.1</v>
@@ -9304,7 +9313,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C301">
         <v>28</v>
@@ -9330,7 +9339,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C302">
         <v>28</v>
@@ -9356,7 +9365,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C303">
         <v>27.9</v>
@@ -9382,7 +9391,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C304">
         <v>27.9</v>
@@ -9408,7 +9417,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C305">
         <v>27.9</v>
@@ -9434,7 +9443,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C306">
         <v>27.6</v>
@@ -9460,7 +9469,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C307">
         <v>27.6</v>
@@ -9486,7 +9495,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C308">
         <v>27.6</v>
@@ -9512,7 +9521,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C309">
         <v>27.5</v>
@@ -9538,7 +9547,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C310">
         <v>27.3</v>
@@ -9564,7 +9573,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C311">
         <v>27.1</v>
@@ -9590,7 +9599,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C312">
         <v>26.7</v>
@@ -9616,7 +9625,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C313">
         <v>26.6</v>
@@ -9642,7 +9651,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C314">
         <v>26.6</v>
@@ -9668,7 +9677,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C315">
         <v>26.5</v>
@@ -9694,7 +9703,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C316">
         <v>26.3</v>
@@ -9720,7 +9729,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C317">
         <v>26.2</v>
@@ -9746,7 +9755,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C318">
         <v>26.1</v>
@@ -9772,7 +9781,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C319">
         <v>26.1</v>
@@ -9798,7 +9807,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C320">
         <v>25.5</v>
@@ -9824,7 +9833,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C321">
         <v>25.4</v>
@@ -9850,7 +9859,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C322">
         <v>25.3</v>
@@ -9876,7 +9885,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C323">
         <v>24.2</v>
@@ -9902,7 +9911,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C324">
         <v>23.7</v>
@@ -9928,7 +9937,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C325">
         <v>23.3</v>
@@ -9954,7 +9963,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C326">
         <v>23.2</v>
@@ -9980,7 +9989,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C327">
         <v>23.2</v>
@@ -10006,7 +10015,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C328">
         <v>22.5</v>
@@ -10032,7 +10041,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C329">
         <v>22.4</v>
@@ -10058,7 +10067,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C330">
         <v>22</v>
@@ -10084,7 +10093,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C331">
         <v>21.6</v>
@@ -10110,7 +10119,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C332">
         <v>21.6</v>
@@ -10136,7 +10145,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C333">
         <v>21.3</v>
@@ -10162,7 +10171,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C334">
         <v>21.3</v>
@@ -10188,7 +10197,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C335">
         <v>20.8</v>
@@ -10214,7 +10223,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C336">
         <v>20.2</v>
@@ -10240,7 +10249,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C337">
         <v>20.2</v>
@@ -10266,7 +10275,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C338">
         <v>20.2</v>
@@ -10292,7 +10301,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C339">
         <v>20</v>
@@ -10318,7 +10327,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C340">
         <v>19.7</v>
@@ -10344,7 +10353,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C341">
         <v>19.5</v>
@@ -10370,7 +10379,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C342">
         <v>19.4</v>
@@ -10396,7 +10405,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C343">
         <v>19.4</v>
@@ -10422,7 +10431,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C344">
         <v>19.1</v>
@@ -10448,7 +10457,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C345">
         <v>18.6</v>
@@ -10474,7 +10483,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C346">
         <v>18.5</v>
@@ -10500,7 +10509,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C347">
         <v>18.4</v>
@@ -10526,7 +10535,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C348">
         <v>18.2</v>
@@ -10552,7 +10561,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C349">
         <v>17.8</v>
@@ -10574,8 +10583,11 @@
       </c>
     </row>
     <row r="350" spans="1:8">
+      <c r="A350" t="s">
+        <v>8</v>
+      </c>
       <c r="B350" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C350">
         <v>60.2</v>
@@ -10597,8 +10609,11 @@
       </c>
     </row>
     <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>8</v>
+      </c>
       <c r="B351" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C351">
         <v>84.8</v>
@@ -10620,8 +10635,11 @@
       </c>
     </row>
     <row r="352" spans="1:8">
+      <c r="A352" t="s">
+        <v>8</v>
+      </c>
       <c r="B352" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C352">
         <v>58.1</v>
@@ -10642,9 +10660,12 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="353" spans="2:8">
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>8</v>
+      </c>
       <c r="B353" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C353">
         <v>61.6</v>
@@ -10665,9 +10686,12 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="354" spans="2:8">
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>8</v>
+      </c>
       <c r="B354" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C354">
         <v>71.40000000000001</v>
@@ -10688,9 +10712,12 @@
         <v>149.8</v>
       </c>
     </row>
-    <row r="355" spans="2:8">
+    <row r="355" spans="1:8">
+      <c r="A355" t="s">
+        <v>8</v>
+      </c>
       <c r="B355" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C355">
         <v>58.1</v>
@@ -10711,9 +10738,12 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="356" spans="2:8">
+    <row r="356" spans="1:8">
+      <c r="A356" t="s">
+        <v>8</v>
+      </c>
       <c r="B356" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C356">
         <v>55.2</v>
@@ -10734,9 +10764,12 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="357" spans="2:8">
+    <row r="357" spans="1:8">
+      <c r="A357" t="s">
+        <v>8</v>
+      </c>
       <c r="B357" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C357">
         <v>74.2</v>
@@ -10757,9 +10790,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="358" spans="2:8">
+    <row r="358" spans="1:8">
+      <c r="A358" t="s">
+        <v>8</v>
+      </c>
       <c r="B358" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C358">
         <v>72.09999999999999</v>
@@ -10780,9 +10816,12 @@
         <v>139.6</v>
       </c>
     </row>
-    <row r="359" spans="2:8">
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
+        <v>8</v>
+      </c>
       <c r="B359" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C359">
         <v>70</v>
@@ -10803,9 +10842,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="360" spans="2:8">
+    <row r="360" spans="1:8">
+      <c r="A360" t="s">
+        <v>8</v>
+      </c>
       <c r="B360" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C360">
         <v>63</v>
@@ -10826,9 +10868,12 @@
         <v>131.9</v>
       </c>
     </row>
-    <row r="361" spans="2:8">
+    <row r="361" spans="1:8">
+      <c r="A361" t="s">
+        <v>8</v>
+      </c>
       <c r="B361" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C361">
         <v>63.9</v>
@@ -10849,9 +10894,12 @@
         <v>153.6</v>
       </c>
     </row>
-    <row r="362" spans="2:8">
+    <row r="362" spans="1:8">
+      <c r="A362" t="s">
+        <v>8</v>
+      </c>
       <c r="B362" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C362">
         <v>65</v>
@@ -10872,9 +10920,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="363" spans="2:8">
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
+        <v>8</v>
+      </c>
       <c r="B363" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C363">
         <v>62.1</v>
@@ -10895,9 +10946,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="364" spans="2:8">
+    <row r="364" spans="1:8">
+      <c r="A364" t="s">
+        <v>8</v>
+      </c>
       <c r="B364" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C364">
         <v>64.8</v>
@@ -10918,9 +10972,12 @@
         <v>151.7</v>
       </c>
     </row>
-    <row r="365" spans="2:8">
+    <row r="365" spans="1:8">
+      <c r="A365" t="s">
+        <v>8</v>
+      </c>
       <c r="B365" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C365">
         <v>64.3</v>
@@ -10941,9 +10998,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="366" spans="2:8">
+    <row r="366" spans="1:8">
+      <c r="A366" t="s">
+        <v>8</v>
+      </c>
       <c r="B366" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C366">
         <v>69.2</v>
@@ -10964,9 +11024,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="367" spans="2:8">
+    <row r="367" spans="1:8">
+      <c r="A367" t="s">
+        <v>8</v>
+      </c>
       <c r="B367" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C367">
         <v>61.4</v>
@@ -10985,6 +11048,58 @@
       </c>
       <c r="H367">
         <v>158.2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" t="s">
+        <v>8</v>
+      </c>
+      <c r="B368" t="s">
+        <v>375</v>
+      </c>
+      <c r="C368">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D368">
+        <v>36.7</v>
+      </c>
+      <c r="E368">
+        <v>50</v>
+      </c>
+      <c r="F368">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="G368">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="H368">
+        <v>130.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" t="s">
+        <v>8</v>
+      </c>
+      <c r="B369" t="s">
+        <v>376</v>
+      </c>
+      <c r="C369">
+        <v>62.7</v>
+      </c>
+      <c r="D369">
+        <v>33.7</v>
+      </c>
+      <c r="E369">
+        <v>49.8</v>
+      </c>
+      <c r="F369">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="G369">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="H369">
+        <v>177.1</v>
       </c>
     </row>
   </sheetData>
